--- a/mfa/S_cerevisiae/run_files/Clim__D_0_16/scGEM_Clim__D_0_16_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/Clim__D_0_16/scGEM_Clim__D_0_16_completeMFA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">Biomass reaction for S. cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425283 ala__L_c + 0.168024 arg__L_c + 0.201977 asn__L_c + 0.201977 asp__L_c + 0.006094 cys__L_c + 0.336918 gln__L_c + 0.336918 glu__L_c + 0.386977 gly_c + 0.084012 his__L_c + 0.256389 ile__L_c + 0.348671 leu__L_c + 0.285989 lys__L_c + 0.049624 met__L_c + 0.163671 phe__L_c + 0.183695 pro__L_c + 0.232012 ser__L_c + 0.242459 thr__L_c + 0.028294 trp__L_c + 0.085318 tyr__L_c + 0.319071 val__L_c + 0.577067 mannan_c + 0.895483 13BDglucan_c + 0.235653 16BDglucan_c + 0.021171 chtn_c + 0.431725 glycogen_c + 0.021640 tre_c + 0.002080 ergstest_c + 0.008122 ergst_c + 0.002111 pail_c + 0.007878 pc_c + 0.002117 pe_c + 0.001818 ps_c + 0.002095 tag_c + 0.001175 ipcbiom_c + 0.000452 ffabiom_c + 0.061589 ctp_c + 0.063381 gtp_c + 0.082533 utp_c + 0.003228 datp_c + 0.002179 dctp_c + 0.002179 dgtp_c + 0.003228 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 102.591610 atp_c + 93.841479 h2o_c --&gt; 4.343375 amp_c + 98.184854 adp_c + 98.184854 h_c + 98.079199 pi_c + 4.625074 ppi_c</t>
+    <t xml:space="preserve">0.425283 ala__L_c + 0.168024 arg__L_c + 0.201977 asn__L_c + 0.201977 asp__L_c + 0.006094 cys__L_c + 0.336918 gln__L_c + 0.336918 glu__L_c + 0.386977 gly_c + 0.084012 his__L_c + 0.256389 ile__L_c + 0.348671 leu__L_c + 0.285989 lys__L_c + 0.049624 met__L_c + 0.163671 phe__L_c + 0.183695 pro__L_c + 0.232012 ser__L_c + 0.242459 thr__L_c + 0.028294 trp__L_c + 0.085318 tyr__L_c + 0.319071 val__L_c + 0.577067 mannan_c + 0.895483 13BDglucan_c + 0.235653 16BDglucan_c + 0.021171 chtn_c + 0.431725 glycogen_c + 0.021640 tre_c + 0.002080 ergstest_c + 0.008122 ergst_c + 0.002111 pail_c + 0.007878 pc_c + 0.002117 pe_c + 0.001818 ps_c + 0.002095 tag_c + 0.001175 ipcbiom_c + 0.000452 ffabiom_c + 0.061589 ctp_c + 0.063381 gtp_c + 0.082533 utp_c + 0.003228 datp_c + 0.002179 dctp_c + 0.002179 dgtp_c + 0.003228 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 143.869698 atp_c + 135.119567 h2o_c --&gt; 4.343375 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 4.625074 ppi_c</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoreaction</t>
@@ -14471,10 +14471,10 @@
   </sheetPr>
   <dimension ref="A1:N573"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A379" activeCellId="0" sqref="A379"/>
+      <selection pane="bottomLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33259,8 +33259,8 @@
   </sheetPr>
   <dimension ref="A1:L479"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A345" activeCellId="0" sqref="A345"/>
     </sheetView>
